--- a/pareto/case_studies/integrated_desalination_demo.xlsx
+++ b/pareto/case_studies/integrated_desalination_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssnaik\Biegler\PARETO\pyomo_models\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34410F90-2276-45F0-9440-B1D6DE9BC4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7B0BD4-B42F-4BCD-A574-AEE52A27191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="834" firstSheet="56" activeTab="60" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="834" firstSheet="50" activeTab="56" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -4435,7 +4435,7 @@
   <dimension ref="A1:AZ12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10625,8 +10625,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10918,7 +10918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6983D6E2-EC48-E04B-A292-F019B326FE69}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
